--- a/ค่าอบรมและกิจกรรม.xlsx
+++ b/ค่าอบรมและกิจกรรม.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D_Profile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E7D44D-5AB8-44DC-A7E0-8454514D537E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54243E79-E546-47F1-9A77-A23CAAC0B694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{F81E12E0-6CD1-4DCE-9DC3-D441743A9E8B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13740" xr2:uid="{F81E12E0-6CD1-4DCE-9DC3-D441743A9E8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>วิทยากร</t>
   </si>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>อาหารว่าง</t>
-  </si>
-  <si>
-    <t>ค่าถ่ายเอกสาร</t>
   </si>
   <si>
     <t>-           แนวทางการวิเคราะห์และออกแบบโครงสร้างข้อมูลประวัติการศึกษา</t>
@@ -159,12 +156,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -479,201 +477,315 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4F16803-4239-435D-B778-F44FBCDF452E}">
-  <dimension ref="B3:I24"/>
+  <dimension ref="B3:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9">
-      <c r="C3" t="s">
+    <row r="3" spans="2:11">
+      <c r="C3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="2:9">
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="2:11">
       <c r="B4" t="s">
         <v>0</v>
       </c>
-      <c r="C4">
-        <v>5</v>
-      </c>
-      <c r="D4">
+      <c r="C4" s="2">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2">
         <v>1</v>
       </c>
       <c r="E4">
         <v>600</v>
       </c>
-      <c r="F4">
-        <v>8</v>
+      <c r="F4" s="2">
+        <v>4</v>
       </c>
       <c r="G4">
         <f>C4*D4*E4*F4</f>
-        <v>24000</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9">
-      <c r="B5" t="s">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="C5" s="2">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>600</v>
+      </c>
+      <c r="F5" s="2">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <f>C5*D5*E5*F5</f>
+        <v>28800</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6" t="s">
         <v>1</v>
       </c>
-      <c r="C5">
-        <v>5</v>
-      </c>
-      <c r="D5">
-        <v>40</v>
-      </c>
-      <c r="E5">
-        <v>80</v>
-      </c>
-      <c r="F5">
+      <c r="C6" s="2">
+        <v>4</v>
+      </c>
+      <c r="D6" s="2">
+        <v>25</v>
+      </c>
+      <c r="E6">
+        <v>200</v>
+      </c>
+      <c r="F6" s="2">
         <v>1</v>
       </c>
-      <c r="G5">
-        <f t="shared" ref="G5:G6" si="0">C5*D5*E5*F5</f>
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9">
-      <c r="B6" t="s">
+      <c r="G6">
+        <f t="shared" ref="G6:G7" si="0">C6*D6*E6*F6</f>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7" t="s">
         <v>2</v>
       </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6">
-        <v>40</v>
-      </c>
-      <c r="E6">
+      <c r="C7" s="2">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>33</v>
+      </c>
+      <c r="F7" s="2">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>6600</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="12" customHeight="1">
+      <c r="G8">
+        <f>SUM(G4:G7)</f>
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="12" customHeight="1"/>
+    <row r="10" spans="2:11" ht="12" customHeight="1">
+      <c r="C10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="12" customHeight="1">
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>2</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>600</v>
+      </c>
+      <c r="F11" s="2">
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <f>C11*D11*E11*F11</f>
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="12" customHeight="1">
+      <c r="C12" s="2">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>600</v>
+      </c>
+      <c r="F12" s="2">
+        <v>4</v>
+      </c>
+      <c r="G12">
+        <f>C12*D12*E12*F12</f>
+        <v>14400</v>
+      </c>
+      <c r="K12">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" ht="12" customHeight="1">
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2</v>
+      </c>
+      <c r="D13" s="2">
+        <v>70</v>
+      </c>
+      <c r="E13">
+        <v>200</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <f t="shared" ref="G13:G14" si="1">C13*D13*E13*F13</f>
+        <v>28000</v>
+      </c>
+      <c r="K13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" ht="12" customHeight="1">
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2</v>
+      </c>
+      <c r="D14" s="2">
+        <v>70</v>
+      </c>
+      <c r="E14">
         <v>35</v>
       </c>
-      <c r="F6">
+      <c r="F14" s="2">
         <v>2</v>
       </c>
-      <c r="G6">
-        <f t="shared" si="0"/>
-        <v>14000</v>
-      </c>
-      <c r="H6">
-        <f>SUM(G4:G6)</f>
-        <v>54000</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" ht="12" customHeight="1">
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7">
-        <f>65000-H6</f>
-        <v>11000</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9">
-      <c r="H8">
-        <f>SUM(H6:H7)</f>
-        <v>65000</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9">
-      <c r="B11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9">
-      <c r="B12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9">
-      <c r="B14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9">
-      <c r="B15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9">
-      <c r="B17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>15</v>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>9800</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="G15">
+        <f>SUM(G11:G14)</f>
+        <v>57000</v>
       </c>
     </row>
     <row r="18" spans="2:9">
       <c r="B18" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9">
-      <c r="B20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="2:9">
       <c r="B21" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9">
-      <c r="B23" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>27</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="B22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="2:9">
       <c r="B24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="B25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="B27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="B28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9">
+      <c r="B30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I30" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I24" s="1" t="s">
-        <v>28</v>
+    </row>
+    <row r="31" spans="2:9">
+      <c r="B31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="G3:H3"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/ค่าอบรมและกิจกรรม.xlsx
+++ b/ค่าอบรมและกิจกรรม.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D_Profile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54243E79-E546-47F1-9A77-A23CAAC0B694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2627D662-2EEC-4E86-B0DB-5840DA2AD7D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13740" xr2:uid="{F81E12E0-6CD1-4DCE-9DC3-D441743A9E8B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
   <si>
     <t>วิทยากร</t>
   </si>
@@ -47,51 +47,6 @@
     <t>อาหารว่าง</t>
   </si>
   <si>
-    <t>-           แนวทางการวิเคราะห์และออกแบบโครงสร้างข้อมูลประวัติการศึกษา</t>
-  </si>
-  <si>
-    <t>-           แนวทางการวิเคราะห์และออกแบบโครงสร้างข้อมูลความเชี่ยวชาญ</t>
-  </si>
-  <si>
-    <t>-           แนวทางการวิเคราะห์และออกแบบโครงสร้างข้อมูลผลงานและรางวัล</t>
-  </si>
-  <si>
-    <t>-           แนวทางการวิเคราะห์และออกแบบโครงสร้างข้อมูลประวัติฝึกอบรมสัมมนา</t>
-  </si>
-  <si>
-    <t>-           แนวทางการวิเคราะห์และออกแบบโครงสร้างข้อมูลประวัติการลา</t>
-  </si>
-  <si>
-    <t>-           แนวทางการวิเคราะห์และออกแบบโครงสร้างข้อมูลประวัติการวิจัย</t>
-  </si>
-  <si>
-    <t>-           แนวทางการวิเคราะห์และออกแบบโครงสร้างข้อมูลประวัติการบริการทางวิชาการแก่สังคม</t>
-  </si>
-  <si>
-    <t>-           ฝึกปฏิบัติการวิเคราะห์และออกแบบโครงสร้างข้อมูลบุคลากร</t>
-  </si>
-  <si>
-    <t>-           ฝึกปฏิบัติการวิเคราะห์และออกแบบโครงสร้างข้อมูลประวัติการศึกษา</t>
-  </si>
-  <si>
-    <t>-           ฝึกปฏิบัติการวิเคราะห์และออกแบบโครงสร้างข้อมูลความเชี่ยวชาญ</t>
-  </si>
-  <si>
-    <t>-           ฝึกปฏิบัติการวิเคราะห์และออกแบบโครงสร้างข้อมูลผลงานและรางวัล</t>
-  </si>
-  <si>
-    <t>-           ฝึกปฏิบัติการวิเคราะห์และออกแบบโครงสร้างข้อมูลประวัติฝึกอบรมสัมมนา</t>
-  </si>
-  <si>
-    <t>-           ฝึกปฏิบัติการวิเคราะห์และออกแบบโครงสร้างข้อมูลประวัติการลา</t>
-  </si>
-  <si>
-    <t>-           ฝึกปฏิบัติการวิเคราะห์และออกแบบโครงสร้างข้อมูลประวัติการวิจัย</t>
-  </si>
-  <si>
-    <t>-           ฝึกปฏิบัติการวิเคราะห์และออกแบบโครงสร้างข้อมูลประวัติการบริการทางวิชาการแก่สังคม</t>
-  </si>
-  <si>
     <t>วัน</t>
   </si>
   <si>
@@ -107,19 +62,40 @@
     <t>รวม</t>
   </si>
   <si>
-    <t>-           แนวทางการวิเคราะห์และออกแบบโครงสร้าข้อมูลบุคลากร</t>
-  </si>
-  <si>
-    <t>-           แนวทางการวิเคราะห์และออกแบบโครงสร้างข้อมูลคำสั่งปฏิบัติงาน</t>
-  </si>
-  <si>
-    <t>-           แนวทางการวิเคราะห์และออกแบบรายงานข้อมูลบุคลากรเชิงดิจิทัล</t>
-  </si>
-  <si>
-    <t>-           ฝึกปฏิบัติการการวิเคราะห์และออกแบบโครงสร้างข้อมูลคำสั่งปฏิบัติงาน</t>
-  </si>
-  <si>
-    <t>-           ฝึกปฏิบัติการวิเคราะห์และออกแบบรายงานข้อมูลบุคลากรเชิงดิจิทัล</t>
+    <t>- การจัดระบบข้อมูลในรูปแบบดิจิทัลสำหรับประวัติฝึกอบรมสัมมนา</t>
+  </si>
+  <si>
+    <t>- การจัดระบบข้อมูลในรูปแบบดิจิทัลสำหรับประวัติการลา</t>
+  </si>
+  <si>
+    <t>- การจัดระบบข้อมูลในรูปแบบดิจิทัลสำหรับประวัติการวิจัย</t>
+  </si>
+  <si>
+    <t>- การจัดระบบข้อมูลในรูปแบบดิจิทัลสำหรับประวัติการบริการทางวิชาการแก่สังคม</t>
+  </si>
+  <si>
+    <t>- การจัดระบบข้อมูลในรูปแบบดิจิทัลสำหรับข้อมูลพื้นฐานของบุคลาการ</t>
+  </si>
+  <si>
+    <t>- ฝึกปฏิบัติการการจัดระบบข้อมูลในรูปแบบดิจิทัลสำหรับข้อมูลพื้นฐานของบุคลาการ</t>
+  </si>
+  <si>
+    <t>- ฝึกปฏิบัติการการจัดระบบข้อมูลในรูปแบบดิจิทัลสำหรับประวัติฝึกอบรมสัมมนา</t>
+  </si>
+  <si>
+    <t>- ฝึกปฏิบัติการการจัดระบบข้อมูลในรูปแบบดิจิทัลสำหรับประวัติการลา</t>
+  </si>
+  <si>
+    <t>- ฝึกปฏิบัติการการจัดระบบข้อมูลในรูปแบบดิจิทัลสำหรับประวัติการวิจัย</t>
+  </si>
+  <si>
+    <t>- ฝึกปฏิบัติการการจัดระบบข้อมูลในรูปแบบดิจิทัลสำหรับประวัติการบริการทางวิชาการแก่สังคม</t>
+  </si>
+  <si>
+    <t>- การจัดระบบข้อมูลในรูปแบบดิจิทัลสำหรับข้อมูลความเชี่ยวชาญ ผลงานและรางวัล</t>
+  </si>
+  <si>
+    <t>- ฝึกปฏิบัติการการจัดระบบข้อมูลในรูปแบบดิจิทัลสำหรับข้อมูลความเชี่ยวชาญ ผลงานและรางวัล</t>
   </si>
 </sst>
 </file>
@@ -156,11 +132,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
@@ -477,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4F16803-4239-435D-B778-F44FBCDF452E}">
-  <dimension ref="B3:K31"/>
+  <dimension ref="B3:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -489,25 +468,25 @@
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:11">
+    <row r="3" spans="2:13">
       <c r="C3" s="2" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="2:11">
+        <v>7</v>
+      </c>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="2:13">
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -528,7 +507,7 @@
         <v>9600</v>
       </c>
     </row>
-    <row r="5" spans="2:11">
+    <row r="5" spans="2:13">
       <c r="C5" s="2">
         <v>4</v>
       </c>
@@ -546,7 +525,7 @@
         <v>28800</v>
       </c>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:13">
       <c r="B6" t="s">
         <v>1</v>
       </c>
@@ -567,7 +546,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:13">
       <c r="B7" t="s">
         <v>2</v>
       </c>
@@ -588,36 +567,36 @@
         <v>6600</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="12" customHeight="1">
+    <row r="8" spans="2:13" ht="12" customHeight="1">
       <c r="G8">
         <f>SUM(G4:G7)</f>
         <v>65000</v>
       </c>
     </row>
-    <row r="9" spans="2:11" ht="12" customHeight="1"/>
-    <row r="10" spans="2:11" ht="12" customHeight="1">
+    <row r="9" spans="2:13" ht="12" customHeight="1"/>
+    <row r="10" spans="2:13" ht="12" customHeight="1">
       <c r="C10" s="2" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" ht="12" customHeight="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" ht="12" customHeight="1">
       <c r="B11" t="s">
         <v>0</v>
       </c>
       <c r="C11" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" s="2">
         <v>1</v>
@@ -630,12 +609,28 @@
       </c>
       <c r="G11">
         <f>C11*D11*E11*F11</f>
-        <v>4800</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" ht="12" customHeight="1">
+        <v>7200</v>
+      </c>
+      <c r="I11" s="2">
+        <v>3</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>600</v>
+      </c>
+      <c r="L11" s="2">
+        <v>4</v>
+      </c>
+      <c r="M11">
+        <f>I11*J11*K11*L11</f>
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" ht="12" customHeight="1">
       <c r="C12" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" s="2">
         <v>3</v>
@@ -648,45 +643,71 @@
       </c>
       <c r="G12">
         <f>C12*D12*E12*F12</f>
-        <v>14400</v>
+        <v>21600</v>
+      </c>
+      <c r="I12" s="2">
+        <v>3</v>
+      </c>
+      <c r="J12" s="2">
+        <v>3</v>
       </c>
       <c r="K12">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" ht="12" customHeight="1">
+        <v>600</v>
+      </c>
+      <c r="L12" s="2">
+        <v>4</v>
+      </c>
+      <c r="M12">
+        <f>I12*J12*K12*L12</f>
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" ht="12" customHeight="1">
       <c r="B13" t="s">
         <v>1</v>
       </c>
       <c r="C13" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" s="2">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="E13">
-        <v>200</v>
+        <v>198.15</v>
       </c>
       <c r="F13" s="2">
         <v>1</v>
       </c>
       <c r="G13">
         <f t="shared" ref="G13:G14" si="1">C13*D13*E13*F13</f>
-        <v>28000</v>
+        <v>26750.25</v>
+      </c>
+      <c r="I13" s="2">
+        <v>3</v>
+      </c>
+      <c r="J13" s="2">
+        <v>50</v>
       </c>
       <c r="K13">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" ht="12" customHeight="1">
+        <v>200</v>
+      </c>
+      <c r="L13" s="2">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <f t="shared" ref="M13:M14" si="2">I13*J13*K13*L13</f>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" ht="12" customHeight="1">
       <c r="B14" t="s">
         <v>2</v>
       </c>
       <c r="C14" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" s="2">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="E14">
         <v>35</v>
@@ -696,94 +717,102 @@
       </c>
       <c r="G14">
         <f t="shared" si="1"/>
-        <v>9800</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11">
+        <v>9450</v>
+      </c>
+      <c r="I14" s="2">
+        <v>3</v>
+      </c>
+      <c r="J14" s="2">
+        <v>50</v>
+      </c>
+      <c r="K14" s="3">
+        <v>20.666699999999999</v>
+      </c>
+      <c r="L14" s="2">
+        <v>2</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="2"/>
+        <v>6200.0099999999993</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13">
       <c r="G15">
         <f>SUM(G11:G14)</f>
-        <v>57000</v>
-      </c>
-    </row>
+        <v>65000.25</v>
+      </c>
+      <c r="M15">
+        <f>SUM(M11:M14)</f>
+        <v>65000.01</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" ht="9" customHeight="1"/>
     <row r="18" spans="2:9">
       <c r="B18" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="2:9">
       <c r="B19" s="1" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="2:9">
       <c r="B21" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="2:9">
       <c r="B22" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="2:9">
       <c r="B24" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="2:9">
       <c r="B25" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="B26" s="1"/>
     </row>
     <row r="27" spans="2:9">
-      <c r="B27" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="B27" s="1"/>
+      <c r="I27" s="1"/>
     </row>
     <row r="28" spans="2:9">
-      <c r="B28" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="B28" s="1"/>
+      <c r="I28" s="1"/>
     </row>
     <row r="30" spans="2:9">
-      <c r="B30" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="B30" s="1"/>
+      <c r="I30" s="1"/>
     </row>
     <row r="31" spans="2:9">
-      <c r="B31" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="B31" s="1"/>
+      <c r="I31" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
